--- a/biology/Zoologie/Bowie_(genre)/Bowie_(genre).xlsx
+++ b/biology/Zoologie/Bowie_(genre)/Bowie_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bowie est un genre d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowie est un genre d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie du Sud, en Asie de l'Est et en Nouvelle-Guinée sauf Bowie corniger d'Afrique du Sud[1]. Des espèces non décrites seraient présentes en Australie au Queensland[2].
-L'aire de distribution de chaque espèce est en général assez réduite, inférieure à la trentaine de milliers de kilomètres carrés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie du Sud, en Asie de l'Est et en Nouvelle-Guinée sauf Bowie corniger d'Afrique du Sud. Des espèces non décrites seraient présentes en Australie au Queensland.
+L'aire de distribution de chaque espèce est en général assez réduite, inférieure à la trentaine de milliers de kilomètres carrés.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans la litière forestière[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans la litière forestière.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 7,0 à 21,1 mm et les femelles de 5,7 à 27,0 mm[2].
-Elles peuvent atteindre une envergure de 15 centimètres[3].
-Ce sont des araignées nocturnes, dites errantes : elles vivent en nomades et chassent sans tisser de toile[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 7,0 à 21,1 mm et les femelles de 5,7 à 27,0 mm.
+Elles peuvent atteindre une envergure de 15 centimètres.
+Ce sont des araignées nocturnes, dites errantes : elles vivent en nomades et chassent sans tisser de toile.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 29/05/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 29/05/2024) :
 Bowie abdulmajid Jäger, 2022
 Bowie afterall Jäger, 2022
 Bowie aladdinsane Jäger, 2022
@@ -755,11 +775,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Jäger en 2022 dans les Ctenidae.
-Bowie rebelrebel est son espèce type[2].
-Jäger propose quatorze groupes d'espèce selon des critères morphologiques, qu'il nomme cladarus (17 espèces), robustus (14 espèces), bemywife (2 espèces), rebelrebel (10 espèces), youngamericans (3 espèces), floweri (3 espèces), scarymonsters (2 espèces), teenagewildlife (2 espèces), argentipes (10 espèces), javanus (5 espèces), chinagirl (11 espèces), shakeit (5 espèces), lodger (3 espèces) et blackstar (7 espèces) et onze espèces isolées[2].
+Bowie rebelrebel est son espèce type.
+Jäger propose quatorze groupes d'espèce selon des critères morphologiques, qu'il nomme cladarus (17 espèces), robustus (14 espèces), bemywife (2 espèces), rebelrebel (10 espèces), youngamericans (3 espèces), floweri (3 espèces), scarymonsters (2 espèces), teenagewildlife (2 espèces), argentipes (10 espèces), javanus (5 espèces), chinagirl (11 espèces), shakeit (5 espèces), lodger (3 espèces) et blackstar (7 espèces) et onze espèces isolées.
 </t>
         </is>
       </c>
@@ -788,9 +810,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de l'auteur-compositeur-interpréte anglais David Bowie[2],[3]. Les cinquante-cinq espèces nouvellement décrites par Jäger en 2022 sont baptisées en hommage à des personas ou à des chansons de David Bowie. Jäger a attribué les titres les plus anciens du chanteur aux espèces vivant au nord-ouest de leur zone de présence et les plus récents aux espèces découvertes au sud-est de la Nouvelle-Guinée[2],[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de l'auteur-compositeur-interpréte anglais David Bowie,. Les cinquante-cinq espèces nouvellement décrites par Jäger en 2022 sont baptisées en hommage à des personas ou à des chansons de David Bowie. Jäger a attribué les titres les plus anciens du chanteur aux espèces vivant au nord-ouest de leur zone de présence et les plus récents aux espèces découvertes au sud-est de la Nouvelle-Guinée,.
 </t>
         </is>
       </c>
@@ -819,7 +843,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Jäger, 2022 : « Bowie gen. nov., a diverse lineage of ground-dwelling spiders occurring from the Himalayas to Papua New Guinea and northern Australia (Araneae: Ctenidae: Cteninae). » Zootaxa, no 5170(1), p. 1-200.</t>
         </is>
